--- a/data/trans_bre/P1403-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P1403-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>4.332877739359239</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3.405043068862848</v>
+        <v>3.40504306886284</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01938655928512511</v>
@@ -649,7 +649,7 @@
         <v>0.2837134777991117</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.1600367992768159</v>
+        <v>0.1600367992768155</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.57752355098618</v>
+        <v>-3.316036717228781</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.725029588334426</v>
+        <v>0.6906580171811443</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.07955084498870231</v>
+        <v>0.2029179849278447</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.3497199412294751</v>
+        <v>-0.4033241049800694</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.2041161534273859</v>
+        <v>-0.1988846501002728</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03576812315411484</v>
+        <v>0.03306790085353361</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.005315311989082268</v>
+        <v>0.005951470509894849</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.01572769050931436</v>
+        <v>-0.01480789875894332</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.084727667810089</v>
+        <v>3.754752319499526</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.574679830303232</v>
+        <v>9.409349311238296</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.164753376998368</v>
+        <v>8.281050405479579</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.13234774498244</v>
+        <v>6.928950802645033</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2991761876222205</v>
+        <v>0.2800548086166594</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5623863496507067</v>
+        <v>0.5505129634463842</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6268374603712947</v>
+        <v>0.5911490593810248</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.3681595079704314</v>
+        <v>0.3657271961527896</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>1.402209982086955</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.676921340687298</v>
+        <v>1.676921340687296</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5095451299565213</v>
@@ -749,7 +749,7 @@
         <v>0.09057429070570383</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.09638937275354877</v>
+        <v>0.09638937275354861</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>2.793181461624352</v>
+        <v>2.809729277304667</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6145730285752626</v>
+        <v>0.371286086728142</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.279077534439311</v>
+        <v>-1.9353461205512</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.492503746826037</v>
+        <v>-1.304206900416043</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2093974465414011</v>
+        <v>0.2112089547062758</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03604143686291308</v>
+        <v>0.0216725945544625</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1335025730600007</v>
+        <v>-0.1131674335173567</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.07805922111822014</v>
+        <v>-0.0713347876277194</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>9.309116729805416</v>
+        <v>9.338742926402132</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.591445342233144</v>
+        <v>7.384108928374128</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.820002233401705</v>
+        <v>4.780519593373666</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.570072994949242</v>
+        <v>4.542907056387166</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.8725865440929856</v>
+        <v>0.8899935732768105</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5697932520660882</v>
+        <v>0.5688222303973864</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3535245465507588</v>
+        <v>0.339942803094894</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.295336782295407</v>
+        <v>0.2862263189998975</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>3.631126817291677</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-2.93011580366466</v>
+        <v>-2.930115803664663</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3679333581714102</v>
@@ -849,7 +849,7 @@
         <v>0.2544075835879894</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.1481171058421759</v>
+        <v>-0.1481171058421761</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6518827322540992</v>
+        <v>0.5533265206289727</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.059959302276172</v>
+        <v>-1.267243850953263</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.1569541579777548</v>
+        <v>-0.319971143380046</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-6.229790920556161</v>
+        <v>-6.511876491702677</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.04062121137187742</v>
+        <v>0.03800574253080568</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.07089098711981542</v>
+        <v>-0.08591488450108892</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.009853353580629063</v>
+        <v>-0.02406156150699739</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.2805746479112677</v>
+        <v>-0.2958810022048113</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.3537548086189</v>
+        <v>8.44524205208722</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.673548422156224</v>
+        <v>6.204278801782773</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.618735416600068</v>
+        <v>7.346105601584243</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9863765983169429</v>
+        <v>0.7744171811732996</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.7567196734304977</v>
+        <v>0.7813100546291271</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5122214367804337</v>
+        <v>0.4968742649852834</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6281813665815466</v>
+        <v>0.5651805463174686</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.05698363573459905</v>
+        <v>0.04252265678285418</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5065133040948488</v>
+        <v>0.9579837553006948</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.139860460054155</v>
+        <v>0.951305481539832</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.352048120299361</v>
+        <v>-1.374429692521186</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.167835506778539</v>
+        <v>0.9822484419558799</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.03735253622674924</v>
+        <v>0.06316398488083987</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04664870204531558</v>
+        <v>0.04440104298953363</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.08356311866558486</v>
+        <v>-0.0831655047251665</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.05505919544852848</v>
+        <v>0.04719376620514208</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.979319772871882</v>
+        <v>6.709836721104044</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.569407867089687</v>
+        <v>8.596880458544232</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.364997200714896</v>
+        <v>5.315622523707645</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.603087072725934</v>
+        <v>7.173197554284956</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6305300384950779</v>
+        <v>0.6053346056566112</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4990293920601754</v>
+        <v>0.5268125223120826</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.388035566850486</v>
+        <v>0.3798547357894685</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4514736766439273</v>
+        <v>0.4124133629130971</v>
       </c>
     </row>
     <row r="16">
@@ -1049,7 +1049,7 @@
         <v>0.1722378673115894</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.09399747139938575</v>
+        <v>0.09399747139938576</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.202730591219993</v>
+        <v>2.169276757580453</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.056481225639992</v>
+        <v>2.159755845677264</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7445226211032067</v>
+        <v>0.7062115568130776</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2400833136683611</v>
+        <v>0.2172202420744843</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1563005771536803</v>
+        <v>0.1533317968438858</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1146978212604576</v>
+        <v>0.122012455989612</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04697340740355318</v>
+        <v>0.04514305995163926</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.01233257015255432</v>
+        <v>0.01049610223744662</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.795334174303458</v>
+        <v>5.574106773837838</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.989172241790971</v>
+        <v>5.99417508352875</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.382938103504975</v>
+        <v>4.245946053473901</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.598245058241568</v>
+        <v>3.489670092871856</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.4719192193883515</v>
+        <v>0.4590478550042633</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3787898682834883</v>
+        <v>0.3770538351157062</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3069626436739726</v>
+        <v>0.2945475891325661</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.2015208847643288</v>
+        <v>0.19105675621932</v>
       </c>
     </row>
     <row r="19">
